--- a/data/output/FV2304_FV2210/INVOIC/31006.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31006.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="323">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3671" uniqueCount="323">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1119,6 +1119,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U175" totalsRowShown="0">
+  <autoFilter ref="A1:U175"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1408,7 +1438,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9426,5 +9459,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/INVOIC/31006.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31006.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4324" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4196" uniqueCount="486">
   <si>
     <t>#</t>
   </si>
@@ -7207,48 +7207,46 @@
       <c r="V109" s="11"/>
     </row>
     <row r="110" spans="1:22">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5" t="s">
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K110" s="5"/>
-      <c r="L110" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M110" s="5" t="s">
+      <c r="K110" s="2"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N110" s="5" t="s">
+      <c r="N110" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O110" s="5" t="s">
+      <c r="O110" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P110" s="5"/>
-      <c r="Q110" s="5"/>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
-      <c r="T110" s="5"/>
-      <c r="U110" s="5" t="s">
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V110" s="5"/>
+      <c r="V110" s="2"/>
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="5" t="s">
@@ -7278,9 +7276,7 @@
         <v>273</v>
       </c>
       <c r="K111" s="5"/>
-      <c r="L111" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L111" s="4"/>
       <c r="M111" s="5" t="s">
         <v>40</v>
       </c>
@@ -7334,9 +7330,7 @@
       <c r="K112" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="L112" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L112" s="4"/>
       <c r="M112" s="5" t="s">
         <v>40</v>
       </c>
@@ -7363,48 +7357,46 @@
       </c>
     </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E113" s="5"/>
-      <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5" t="s">
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K113" s="5"/>
-      <c r="L113" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M113" s="5" t="s">
+      <c r="K113" s="2"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N113" s="5" t="s">
+      <c r="N113" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O113" s="5" t="s">
+      <c r="O113" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="5"/>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="5"/>
-      <c r="U113" s="5" t="s">
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V113" s="5"/>
+      <c r="V113" s="2"/>
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="5" t="s">
@@ -7434,9 +7426,7 @@
         <v>273</v>
       </c>
       <c r="K114" s="5"/>
-      <c r="L114" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L114" s="4"/>
       <c r="M114" s="5" t="s">
         <v>41</v>
       </c>
@@ -7490,9 +7480,7 @@
         <v>273</v>
       </c>
       <c r="K115" s="5"/>
-      <c r="L115" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L115" s="4"/>
       <c r="M115" s="5" t="s">
         <v>41</v>
       </c>
@@ -7546,9 +7534,7 @@
         <v>273</v>
       </c>
       <c r="K116" s="5"/>
-      <c r="L116" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L116" s="4"/>
       <c r="M116" s="5" t="s">
         <v>41</v>
       </c>
@@ -7575,48 +7561,46 @@
       <c r="V116" s="5"/>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5" t="s">
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K117" s="5"/>
-      <c r="L117" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M117" s="5" t="s">
+      <c r="K117" s="2"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N117" s="5" t="s">
+      <c r="N117" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O117" s="5" t="s">
+      <c r="O117" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="5"/>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
-      <c r="T117" s="5"/>
-      <c r="U117" s="5" t="s">
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V117" s="5"/>
+      <c r="V117" s="2"/>
     </row>
     <row r="118" spans="1:22">
       <c r="A118" s="5" t="s">
@@ -7646,9 +7630,7 @@
         <v>273</v>
       </c>
       <c r="K118" s="5"/>
-      <c r="L118" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L118" s="4"/>
       <c r="M118" s="5" t="s">
         <v>42</v>
       </c>
@@ -7675,48 +7657,46 @@
       <c r="V118" s="5"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5" t="s">
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K119" s="5"/>
-      <c r="L119" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M119" s="5" t="s">
+      <c r="K119" s="2"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N119" s="5" t="s">
+      <c r="N119" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O119" s="5" t="s">
+      <c r="O119" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5"/>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
-      <c r="U119" s="5" t="s">
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V119" s="5"/>
+      <c r="V119" s="2"/>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="5" t="s">
@@ -7746,9 +7726,7 @@
         <v>273</v>
       </c>
       <c r="K120" s="5"/>
-      <c r="L120" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L120" s="4"/>
       <c r="M120" s="5" t="s">
         <v>43</v>
       </c>
@@ -7858,9 +7836,7 @@
         <v>273</v>
       </c>
       <c r="K122" s="5"/>
-      <c r="L122" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L122" s="4"/>
       <c r="M122" s="5" t="s">
         <v>43</v>
       </c>
@@ -7887,48 +7863,46 @@
       <c r="V122" s="5"/>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5" t="s">
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K123" s="5"/>
-      <c r="L123" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M123" s="5" t="s">
+      <c r="K123" s="2"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N123" s="5" t="s">
+      <c r="N123" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O123" s="5" t="s">
+      <c r="O123" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P123" s="5"/>
-      <c r="Q123" s="5"/>
-      <c r="R123" s="5"/>
-      <c r="S123" s="5"/>
-      <c r="T123" s="5"/>
-      <c r="U123" s="5" t="s">
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V123" s="5"/>
+      <c r="V123" s="2"/>
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="5" t="s">
@@ -7958,9 +7932,7 @@
       <c r="K124" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="L124" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L124" s="4"/>
       <c r="M124" s="5" t="s">
         <v>44</v>
       </c>
@@ -8014,9 +7986,7 @@
       <c r="K125" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="L125" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L125" s="4"/>
       <c r="M125" s="5" t="s">
         <v>44</v>
       </c>
@@ -8070,9 +8040,7 @@
         <v>273</v>
       </c>
       <c r="K126" s="5"/>
-      <c r="L126" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L126" s="4"/>
       <c r="M126" s="5" t="s">
         <v>44</v>
       </c>
@@ -8099,48 +8067,46 @@
       <c r="V126" s="5"/>
     </row>
     <row r="127" spans="1:22">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C127" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5" t="s">
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K127" s="5"/>
-      <c r="L127" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M127" s="5" t="s">
+      <c r="K127" s="2"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N127" s="5" t="s">
+      <c r="N127" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O127" s="5" t="s">
+      <c r="O127" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="P127" s="5"/>
-      <c r="Q127" s="5"/>
-      <c r="R127" s="5"/>
-      <c r="S127" s="5"/>
-      <c r="T127" s="5"/>
-      <c r="U127" s="5" t="s">
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+      <c r="R127" s="2"/>
+      <c r="S127" s="2"/>
+      <c r="T127" s="2"/>
+      <c r="U127" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V127" s="5"/>
+      <c r="V127" s="2"/>
     </row>
     <row r="128" spans="1:22">
       <c r="A128" s="5" t="s">
@@ -8170,9 +8136,7 @@
         <v>273</v>
       </c>
       <c r="K128" s="5"/>
-      <c r="L128" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L128" s="4"/>
       <c r="M128" s="5" t="s">
         <v>45</v>
       </c>
@@ -8282,9 +8246,7 @@
         <v>273</v>
       </c>
       <c r="K130" s="5"/>
-      <c r="L130" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L130" s="4"/>
       <c r="M130" s="5" t="s">
         <v>45</v>
       </c>
@@ -8311,48 +8273,46 @@
       <c r="V130" s="5"/>
     </row>
     <row r="131" spans="1:22">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C131" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D131" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
-      <c r="G131" s="5"/>
-      <c r="H131" s="5"/>
-      <c r="I131" s="5"/>
-      <c r="J131" s="5" t="s">
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K131" s="5"/>
-      <c r="L131" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M131" s="5" t="s">
+      <c r="K131" s="2"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N131" s="5" t="s">
+      <c r="N131" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O131" s="5" t="s">
+      <c r="O131" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P131" s="5"/>
-      <c r="Q131" s="5"/>
-      <c r="R131" s="5"/>
-      <c r="S131" s="5"/>
-      <c r="T131" s="5"/>
-      <c r="U131" s="5" t="s">
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+      <c r="T131" s="2"/>
+      <c r="U131" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V131" s="5"/>
+      <c r="V131" s="2"/>
     </row>
     <row r="132" spans="1:22">
       <c r="A132" s="5" t="s">
@@ -8382,9 +8342,7 @@
         <v>273</v>
       </c>
       <c r="K132" s="5"/>
-      <c r="L132" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L132" s="4"/>
       <c r="M132" s="5" t="s">
         <v>46</v>
       </c>
@@ -8436,9 +8394,7 @@
         <v>275</v>
       </c>
       <c r="K133" s="5"/>
-      <c r="L133" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L133" s="4"/>
       <c r="M133" s="5" t="s">
         <v>46</v>
       </c>
@@ -8490,9 +8446,7 @@
         <v>273</v>
       </c>
       <c r="K134" s="5"/>
-      <c r="L134" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L134" s="4"/>
       <c r="M134" s="5" t="s">
         <v>46</v>
       </c>
@@ -8519,48 +8473,46 @@
       <c r="V134" s="5"/>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D135" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E135" s="5"/>
-      <c r="F135" s="5"/>
-      <c r="G135" s="5"/>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5" t="s">
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K135" s="5"/>
-      <c r="L135" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M135" s="5" t="s">
+      <c r="K135" s="2"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N135" s="5" t="s">
+      <c r="N135" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O135" s="5" t="s">
+      <c r="O135" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P135" s="5"/>
-      <c r="Q135" s="5"/>
-      <c r="R135" s="5"/>
-      <c r="S135" s="5"/>
-      <c r="T135" s="5"/>
-      <c r="U135" s="5" t="s">
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V135" s="5"/>
+      <c r="V135" s="2"/>
     </row>
     <row r="136" spans="1:22">
       <c r="A136" s="5" t="s">
@@ -8590,9 +8542,7 @@
         <v>273</v>
       </c>
       <c r="K136" s="5"/>
-      <c r="L136" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L136" s="4"/>
       <c r="M136" s="5" t="s">
         <v>47</v>
       </c>
@@ -8644,9 +8594,7 @@
         <v>275</v>
       </c>
       <c r="K137" s="5"/>
-      <c r="L137" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L137" s="4"/>
       <c r="M137" s="5" t="s">
         <v>47</v>
       </c>
@@ -8698,9 +8646,7 @@
         <v>273</v>
       </c>
       <c r="K138" s="5"/>
-      <c r="L138" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L138" s="4"/>
       <c r="M138" s="5" t="s">
         <v>47</v>
       </c>
@@ -8727,48 +8673,46 @@
       <c r="V138" s="5"/>
     </row>
     <row r="139" spans="1:22">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5"/>
-      <c r="H139" s="5"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5" t="s">
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K139" s="5"/>
-      <c r="L139" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M139" s="5" t="s">
+      <c r="K139" s="2"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N139" s="5" t="s">
+      <c r="N139" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O139" s="5" t="s">
+      <c r="O139" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P139" s="5"/>
-      <c r="Q139" s="5"/>
-      <c r="R139" s="5"/>
-      <c r="S139" s="5"/>
-      <c r="T139" s="5"/>
-      <c r="U139" s="5" t="s">
+      <c r="P139" s="2"/>
+      <c r="Q139" s="2"/>
+      <c r="R139" s="2"/>
+      <c r="S139" s="2"/>
+      <c r="T139" s="2"/>
+      <c r="U139" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V139" s="5"/>
+      <c r="V139" s="2"/>
     </row>
     <row r="140" spans="1:22">
       <c r="A140" s="5" t="s">
@@ -8798,9 +8742,7 @@
         <v>273</v>
       </c>
       <c r="K140" s="5"/>
-      <c r="L140" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L140" s="4"/>
       <c r="M140" s="5" t="s">
         <v>48</v>
       </c>
@@ -8854,9 +8796,7 @@
       <c r="K141" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="L141" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L141" s="4"/>
       <c r="M141" s="5" t="s">
         <v>48</v>
       </c>
@@ -8883,48 +8823,46 @@
       </c>
     </row>
     <row r="142" spans="1:22">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5" t="s">
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K142" s="5"/>
-      <c r="L142" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M142" s="5" t="s">
+      <c r="K142" s="2"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N142" s="5" t="s">
+      <c r="N142" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O142" s="5" t="s">
+      <c r="O142" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
-      <c r="S142" s="5"/>
-      <c r="T142" s="5"/>
-      <c r="U142" s="5" t="s">
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+      <c r="U142" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V142" s="5"/>
+      <c r="V142" s="2"/>
     </row>
     <row r="143" spans="1:22">
       <c r="A143" s="5" t="s">
@@ -8954,9 +8892,7 @@
         <v>273</v>
       </c>
       <c r="K143" s="5"/>
-      <c r="L143" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L143" s="4"/>
       <c r="M143" s="5" t="s">
         <v>49</v>
       </c>
@@ -9010,9 +8946,7 @@
       <c r="K144" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="L144" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L144" s="4"/>
       <c r="M144" s="5" t="s">
         <v>49</v>
       </c>
@@ -9039,48 +8973,46 @@
       </c>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C145" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5" t="s">
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K145" s="5"/>
-      <c r="L145" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M145" s="5" t="s">
+      <c r="K145" s="2"/>
+      <c r="L145" s="4"/>
+      <c r="M145" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N145" s="5" t="s">
+      <c r="N145" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="O145" s="5" t="s">
+      <c r="O145" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5"/>
-      <c r="R145" s="5"/>
-      <c r="S145" s="5"/>
-      <c r="T145" s="5"/>
-      <c r="U145" s="5" t="s">
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+      <c r="U145" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V145" s="5"/>
+      <c r="V145" s="2"/>
     </row>
     <row r="146" spans="1:22">
       <c r="A146" s="5" t="s">
@@ -9110,9 +9042,7 @@
         <v>273</v>
       </c>
       <c r="K146" s="5"/>
-      <c r="L146" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L146" s="4"/>
       <c r="M146" s="5" t="s">
         <v>50</v>
       </c>
@@ -9166,9 +9096,7 @@
         <v>273</v>
       </c>
       <c r="K147" s="5"/>
-      <c r="L147" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L147" s="4"/>
       <c r="M147" s="5" t="s">
         <v>50</v>
       </c>
@@ -9222,9 +9150,7 @@
       <c r="K148" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="L148" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L148" s="4"/>
       <c r="M148" s="5" t="s">
         <v>50</v>
       </c>
@@ -9278,9 +9204,7 @@
         <v>273</v>
       </c>
       <c r="K149" s="5"/>
-      <c r="L149" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>50</v>
       </c>
@@ -9334,9 +9258,7 @@
         <v>273</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>50</v>
       </c>
@@ -9390,9 +9312,7 @@
         <v>273</v>
       </c>
       <c r="K151" s="5"/>
-      <c r="L151" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L151" s="4"/>
       <c r="M151" s="5" t="s">
         <v>50</v>
       </c>
@@ -9419,44 +9339,42 @@
       <c r="V151" s="5"/>
     </row>
     <row r="152" spans="1:22">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5" t="s">
+      <c r="C152" s="2"/>
+      <c r="D152" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5" t="s">
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K152" s="5"/>
-      <c r="L152" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M152" s="5" t="s">
+      <c r="K152" s="2"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N152" s="5"/>
-      <c r="O152" s="5" t="s">
+      <c r="N152" s="2"/>
+      <c r="O152" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P152" s="5"/>
-      <c r="Q152" s="5"/>
-      <c r="R152" s="5"/>
-      <c r="S152" s="5"/>
-      <c r="T152" s="5"/>
-      <c r="U152" s="5" t="s">
+      <c r="P152" s="2"/>
+      <c r="Q152" s="2"/>
+      <c r="R152" s="2"/>
+      <c r="S152" s="2"/>
+      <c r="T152" s="2"/>
+      <c r="U152" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V152" s="5"/>
+      <c r="V152" s="2"/>
     </row>
     <row r="153" spans="1:22">
       <c r="A153" s="5" t="s">
@@ -9484,9 +9402,7 @@
         <v>273</v>
       </c>
       <c r="K153" s="5"/>
-      <c r="L153" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L153" s="4"/>
       <c r="M153" s="5" t="s">
         <v>51</v>
       </c>
@@ -9511,48 +9427,46 @@
       <c r="V153" s="5"/>
     </row>
     <row r="154" spans="1:22">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D154" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5" t="s">
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K154" s="5"/>
-      <c r="L154" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M154" s="5" t="s">
+      <c r="K154" s="2"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N154" s="5" t="s">
+      <c r="N154" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O154" s="5" t="s">
+      <c r="O154" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P154" s="5"/>
-      <c r="Q154" s="5"/>
-      <c r="R154" s="5"/>
-      <c r="S154" s="5"/>
-      <c r="T154" s="5"/>
-      <c r="U154" s="5" t="s">
+      <c r="P154" s="2"/>
+      <c r="Q154" s="2"/>
+      <c r="R154" s="2"/>
+      <c r="S154" s="2"/>
+      <c r="T154" s="2"/>
+      <c r="U154" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V154" s="5"/>
+      <c r="V154" s="2"/>
     </row>
     <row r="155" spans="1:22">
       <c r="A155" s="5" t="s">
@@ -9582,9 +9496,7 @@
         <v>273</v>
       </c>
       <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L155" s="4"/>
       <c r="M155" s="5" t="s">
         <v>52</v>
       </c>
@@ -9638,9 +9550,7 @@
       <c r="K156" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="L156" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L156" s="4"/>
       <c r="M156" s="5" t="s">
         <v>52</v>
       </c>
@@ -9667,48 +9577,46 @@
       </c>
     </row>
     <row r="157" spans="1:22">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C157" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D157" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
-      <c r="J157" s="5" t="s">
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M157" s="5" t="s">
+      <c r="K157" s="2"/>
+      <c r="L157" s="4"/>
+      <c r="M157" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N157" s="5" t="s">
+      <c r="N157" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O157" s="5" t="s">
+      <c r="O157" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P157" s="5"/>
-      <c r="Q157" s="5"/>
-      <c r="R157" s="5"/>
-      <c r="S157" s="5"/>
-      <c r="T157" s="5"/>
-      <c r="U157" s="5" t="s">
+      <c r="P157" s="2"/>
+      <c r="Q157" s="2"/>
+      <c r="R157" s="2"/>
+      <c r="S157" s="2"/>
+      <c r="T157" s="2"/>
+      <c r="U157" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V157" s="5"/>
+      <c r="V157" s="2"/>
     </row>
     <row r="158" spans="1:22">
       <c r="A158" s="5" t="s">
@@ -9738,9 +9646,7 @@
         <v>273</v>
       </c>
       <c r="K158" s="5"/>
-      <c r="L158" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>53</v>
       </c>
@@ -9794,9 +9700,7 @@
       <c r="K159" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="L159" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L159" s="4"/>
       <c r="M159" s="5" t="s">
         <v>53</v>
       </c>
@@ -9823,48 +9727,46 @@
       </c>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5" t="s">
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K160" s="5"/>
-      <c r="L160" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M160" s="5" t="s">
+      <c r="K160" s="2"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N160" s="5" t="s">
+      <c r="N160" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O160" s="5" t="s">
+      <c r="O160" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="P160" s="5"/>
-      <c r="Q160" s="5"/>
-      <c r="R160" s="5"/>
-      <c r="S160" s="5"/>
-      <c r="T160" s="5"/>
-      <c r="U160" s="5" t="s">
+      <c r="P160" s="2"/>
+      <c r="Q160" s="2"/>
+      <c r="R160" s="2"/>
+      <c r="S160" s="2"/>
+      <c r="T160" s="2"/>
+      <c r="U160" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V160" s="5"/>
+      <c r="V160" s="2"/>
     </row>
     <row r="161" spans="1:22">
       <c r="A161" s="5" t="s">
@@ -9894,9 +9796,7 @@
         <v>273</v>
       </c>
       <c r="K161" s="5"/>
-      <c r="L161" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>54</v>
       </c>
@@ -9950,9 +9850,7 @@
         <v>273</v>
       </c>
       <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L162" s="4"/>
       <c r="M162" s="5" t="s">
         <v>54</v>
       </c>
@@ -10006,9 +9904,7 @@
       <c r="K163" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="L163" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L163" s="4"/>
       <c r="M163" s="5" t="s">
         <v>54</v>
       </c>
@@ -10062,9 +9958,7 @@
         <v>273</v>
       </c>
       <c r="K164" s="5"/>
-      <c r="L164" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L164" s="4"/>
       <c r="M164" s="5" t="s">
         <v>54</v>
       </c>
@@ -10118,9 +10012,7 @@
         <v>273</v>
       </c>
       <c r="K165" s="5"/>
-      <c r="L165" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L165" s="4"/>
       <c r="M165" s="5" t="s">
         <v>54</v>
       </c>
@@ -10174,9 +10066,7 @@
         <v>273</v>
       </c>
       <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L166" s="4"/>
       <c r="M166" s="5" t="s">
         <v>54</v>
       </c>
@@ -10203,48 +10093,46 @@
       <c r="V166" s="5"/>
     </row>
     <row r="167" spans="1:22">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D167" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5"/>
-      <c r="J167" s="5" t="s">
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K167" s="5"/>
-      <c r="L167" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M167" s="5" t="s">
+      <c r="K167" s="2"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N167" s="5" t="s">
+      <c r="N167" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O167" s="5" t="s">
+      <c r="O167" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P167" s="5"/>
-      <c r="Q167" s="5"/>
-      <c r="R167" s="5"/>
-      <c r="S167" s="5"/>
-      <c r="T167" s="5"/>
-      <c r="U167" s="5" t="s">
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="2"/>
+      <c r="U167" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V167" s="5"/>
+      <c r="V167" s="2"/>
     </row>
     <row r="168" spans="1:22">
       <c r="A168" s="5" t="s">
@@ -10274,9 +10162,7 @@
         <v>273</v>
       </c>
       <c r="K168" s="5"/>
-      <c r="L168" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L168" s="4"/>
       <c r="M168" s="5" t="s">
         <v>55</v>
       </c>
@@ -10330,9 +10216,7 @@
       <c r="K169" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="L169" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L169" s="4"/>
       <c r="M169" s="5" t="s">
         <v>55</v>
       </c>
@@ -10359,48 +10243,46 @@
       </c>
     </row>
     <row r="170" spans="1:22">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5" t="s">
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K170" s="5"/>
-      <c r="L170" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M170" s="5" t="s">
+      <c r="K170" s="2"/>
+      <c r="L170" s="4"/>
+      <c r="M170" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N170" s="5" t="s">
+      <c r="N170" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O170" s="5" t="s">
+      <c r="O170" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P170" s="5"/>
-      <c r="Q170" s="5"/>
-      <c r="R170" s="5"/>
-      <c r="S170" s="5"/>
-      <c r="T170" s="5"/>
-      <c r="U170" s="5" t="s">
+      <c r="P170" s="2"/>
+      <c r="Q170" s="2"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+      <c r="U170" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V170" s="5"/>
+      <c r="V170" s="2"/>
     </row>
     <row r="171" spans="1:22">
       <c r="A171" s="5" t="s">
@@ -10430,9 +10312,7 @@
         <v>273</v>
       </c>
       <c r="K171" s="5"/>
-      <c r="L171" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L171" s="4"/>
       <c r="M171" s="5" t="s">
         <v>56</v>
       </c>
@@ -10486,9 +10366,7 @@
       <c r="K172" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="L172" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L172" s="4"/>
       <c r="M172" s="5" t="s">
         <v>56</v>
       </c>
@@ -10515,44 +10393,42 @@
       </c>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C173" s="5"/>
-      <c r="D173" s="5" t="s">
+      <c r="C173" s="2"/>
+      <c r="D173" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
-      <c r="J173" s="5" t="s">
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K173" s="5"/>
-      <c r="L173" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="M173" s="5" t="s">
+      <c r="K173" s="2"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N173" s="5"/>
-      <c r="O173" s="5" t="s">
+      <c r="N173" s="2"/>
+      <c r="O173" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P173" s="5"/>
-      <c r="Q173" s="5"/>
-      <c r="R173" s="5"/>
-      <c r="S173" s="5"/>
-      <c r="T173" s="5"/>
-      <c r="U173" s="5" t="s">
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+      <c r="T173" s="2"/>
+      <c r="U173" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="V173" s="5"/>
+      <c r="V173" s="2"/>
     </row>
     <row r="174" spans="1:22">
       <c r="A174" s="5" t="s">
@@ -10578,9 +10454,7 @@
         <v>273</v>
       </c>
       <c r="K174" s="5"/>
-      <c r="L174" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L174" s="4"/>
       <c r="M174" s="5" t="s">
         <v>57</v>
       </c>
@@ -10626,9 +10500,7 @@
         <v>273</v>
       </c>
       <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>311</v>
-      </c>
+      <c r="L175" s="4"/>
       <c r="M175" s="5" t="s">
         <v>57</v>
       </c>

--- a/data/output/FV2304_FV2210/INVOIC/31006.xlsx
+++ b/data/output/FV2304_FV2210/INVOIC/31006.xlsx
@@ -1592,7 +1592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1615,6 +1615,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1623,6 +1626,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2063,7 +2069,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2399,7 +2405,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2633,7 +2639,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2821,7 +2827,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -3009,7 +3015,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3193,7 +3199,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3379,7 +3385,7 @@
         <v>295</v>
       </c>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -3567,7 +3573,7 @@
         <v>296</v>
       </c>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2"/>
@@ -3753,7 +3759,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N38" s="2"/>
@@ -3943,7 +3949,7 @@
         <v>297</v>
       </c>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N42" s="2"/>
@@ -4085,7 +4091,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4235,7 +4241,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4385,7 +4391,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5039,22 +5045,22 @@
       <c r="B64" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8" t="s">
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K64" s="8"/>
-      <c r="L64" s="9" t="s">
+      <c r="K64" s="9"/>
+      <c r="L64" s="10" t="s">
         <v>312</v>
       </c>
       <c r="M64" s="5"/>
@@ -5072,31 +5078,31 @@
       <c r="A65" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8" t="s">
+      <c r="F65" s="9"/>
+      <c r="G65" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8" t="s">
+      <c r="H65" s="9"/>
+      <c r="I65" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="J65" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="K65" s="8"/>
-      <c r="L65" s="9" t="s">
+      <c r="J65" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K65" s="9"/>
+      <c r="L65" s="10" t="s">
         <v>312</v>
       </c>
       <c r="M65" s="5"/>
@@ -5114,33 +5120,33 @@
       <c r="A66" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8" t="s">
+      <c r="F66" s="9"/>
+      <c r="G66" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8" t="s">
+      <c r="H66" s="9"/>
+      <c r="I66" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="J66" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="K66" s="8" t="s">
+      <c r="K66" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="L66" s="9" t="s">
+      <c r="L66" s="10" t="s">
         <v>312</v>
       </c>
       <c r="M66" s="5"/>
@@ -5158,29 +5164,29 @@
       <c r="A67" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8" t="s">
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="J67" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="K67" s="8"/>
-      <c r="L67" s="9" t="s">
+      <c r="J67" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K67" s="9"/>
+      <c r="L67" s="10" t="s">
         <v>312</v>
       </c>
       <c r="M67" s="5"/>
@@ -5208,27 +5214,27 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="M68" s="11" t="s">
+      <c r="M68" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="N68" s="11" t="s">
+      <c r="N68" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O68" s="11" t="s">
+      <c r="O68" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11"/>
-      <c r="U68" s="11" t="s">
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="V68" s="11"/>
+      <c r="V68" s="13"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="5" t="s">
@@ -5244,33 +5250,33 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M69" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="N69" s="11" t="s">
+      <c r="N69" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O69" s="11" t="s">
+      <c r="O69" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P69" s="11" t="s">
+      <c r="P69" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="Q69" s="11"/>
-      <c r="R69" s="11" t="s">
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11" t="s">
+      <c r="S69" s="13"/>
+      <c r="T69" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="U69" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="V69" s="11"/>
+      <c r="U69" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="V69" s="13"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="5" t="s">
@@ -5286,33 +5292,33 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="10" t="s">
+      <c r="L70" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="N70" s="11" t="s">
+      <c r="N70" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O70" s="11" t="s">
+      <c r="O70" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P70" s="11" t="s">
+      <c r="P70" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11" t="s">
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11" t="s">
+      <c r="S70" s="13"/>
+      <c r="T70" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="U70" s="11" t="s">
+      <c r="U70" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="V70" s="11" t="s">
+      <c r="V70" s="13" t="s">
         <v>300</v>
       </c>
     </row>
@@ -5330,31 +5336,31 @@
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
-      <c r="L71" s="10" t="s">
+      <c r="L71" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="M71" s="11" t="s">
+      <c r="M71" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="N71" s="11" t="s">
+      <c r="N71" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O71" s="11" t="s">
+      <c r="O71" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P71" s="11" t="s">
+      <c r="P71" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="Q71" s="11"/>
-      <c r="R71" s="11"/>
-      <c r="S71" s="11"/>
-      <c r="T71" s="11" t="s">
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="U71" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="V71" s="11"/>
+      <c r="U71" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="V71" s="13"/>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="2" t="s">
@@ -5379,7 +5385,7 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5525,7 +5531,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5887,7 +5893,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6541,22 +6547,22 @@
       <c r="B95" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8" t="s">
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K95" s="8"/>
-      <c r="L95" s="9" t="s">
+      <c r="K95" s="9"/>
+      <c r="L95" s="10" t="s">
         <v>312</v>
       </c>
       <c r="M95" s="5"/>
@@ -6574,31 +6580,31 @@
       <c r="A96" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8" t="s">
+      <c r="F96" s="9"/>
+      <c r="G96" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8" t="s">
+      <c r="H96" s="9"/>
+      <c r="I96" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="J96" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="K96" s="8"/>
-      <c r="L96" s="9" t="s">
+      <c r="J96" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K96" s="9"/>
+      <c r="L96" s="10" t="s">
         <v>312</v>
       </c>
       <c r="M96" s="5"/>
@@ -6616,33 +6622,33 @@
       <c r="A97" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8" t="s">
+      <c r="F97" s="9"/>
+      <c r="G97" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8" t="s">
+      <c r="H97" s="9"/>
+      <c r="I97" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="J97" s="8" t="s">
+      <c r="J97" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="K97" s="8" t="s">
+      <c r="K97" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="L97" s="9" t="s">
+      <c r="L97" s="10" t="s">
         <v>312</v>
       </c>
       <c r="M97" s="5"/>
@@ -6660,29 +6666,29 @@
       <c r="A98" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8" t="s">
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="J98" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="K98" s="8"/>
-      <c r="L98" s="9" t="s">
+      <c r="J98" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="K98" s="9"/>
+      <c r="L98" s="10" t="s">
         <v>312</v>
       </c>
       <c r="M98" s="5"/>
@@ -6710,27 +6716,27 @@
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
-      <c r="L99" s="10" t="s">
+      <c r="L99" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="M99" s="11" t="s">
+      <c r="M99" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="N99" s="11" t="s">
+      <c r="N99" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O99" s="11" t="s">
+      <c r="O99" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P99" s="11"/>
-      <c r="Q99" s="11"/>
-      <c r="R99" s="11"/>
-      <c r="S99" s="11"/>
-      <c r="T99" s="11"/>
-      <c r="U99" s="11" t="s">
+      <c r="P99" s="13"/>
+      <c r="Q99" s="13"/>
+      <c r="R99" s="13"/>
+      <c r="S99" s="13"/>
+      <c r="T99" s="13"/>
+      <c r="U99" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="V99" s="11"/>
+      <c r="V99" s="13"/>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="5" t="s">
@@ -6746,33 +6752,33 @@
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
-      <c r="L100" s="10" t="s">
+      <c r="L100" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="M100" s="11" t="s">
+      <c r="M100" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="N100" s="11" t="s">
+      <c r="N100" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O100" s="11" t="s">
+      <c r="O100" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P100" s="11" t="s">
+      <c r="P100" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="Q100" s="11"/>
-      <c r="R100" s="11" t="s">
+      <c r="Q100" s="13"/>
+      <c r="R100" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="S100" s="11"/>
-      <c r="T100" s="11" t="s">
+      <c r="S100" s="13"/>
+      <c r="T100" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="U100" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="V100" s="11"/>
+      <c r="U100" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="V100" s="13"/>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" s="5" t="s">
@@ -6788,33 +6794,33 @@
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
-      <c r="L101" s="10" t="s">
+      <c r="L101" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="M101" s="11" t="s">
+      <c r="M101" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="N101" s="11" t="s">
+      <c r="N101" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O101" s="11" t="s">
+      <c r="O101" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P101" s="11" t="s">
+      <c r="P101" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="Q101" s="11"/>
-      <c r="R101" s="11" t="s">
+      <c r="Q101" s="13"/>
+      <c r="R101" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="S101" s="11"/>
-      <c r="T101" s="11" t="s">
+      <c r="S101" s="13"/>
+      <c r="T101" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="U101" s="11" t="s">
+      <c r="U101" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="V101" s="11" t="s">
+      <c r="V101" s="13" t="s">
         <v>300</v>
       </c>
     </row>
@@ -6832,31 +6838,31 @@
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
-      <c r="L102" s="10" t="s">
+      <c r="L102" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="M102" s="11" t="s">
+      <c r="M102" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="N102" s="11" t="s">
+      <c r="N102" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O102" s="11" t="s">
+      <c r="O102" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P102" s="11" t="s">
+      <c r="P102" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="Q102" s="11"/>
-      <c r="R102" s="11"/>
-      <c r="S102" s="11"/>
-      <c r="T102" s="11" t="s">
+      <c r="Q102" s="13"/>
+      <c r="R102" s="13"/>
+      <c r="S102" s="13"/>
+      <c r="T102" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="U102" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="V102" s="11"/>
+      <c r="U102" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="V102" s="13"/>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="2" t="s">
@@ -6881,7 +6887,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -7180,31 +7186,31 @@
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
-      <c r="L109" s="10" t="s">
+      <c r="L109" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="M109" s="11" t="s">
+      <c r="M109" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N109" s="11" t="s">
+      <c r="N109" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O109" s="11" t="s">
+      <c r="O109" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P109" s="11" t="s">
+      <c r="P109" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="Q109" s="11"/>
-      <c r="R109" s="11"/>
-      <c r="S109" s="11"/>
-      <c r="T109" s="11" t="s">
+      <c r="Q109" s="13"/>
+      <c r="R109" s="13"/>
+      <c r="S109" s="13"/>
+      <c r="T109" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="U109" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="V109" s="11"/>
+      <c r="U109" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="V109" s="13"/>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="2" t="s">
@@ -7229,7 +7235,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7379,7 +7385,7 @@
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -7583,7 +7589,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -7679,7 +7685,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -7885,7 +7891,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8089,7 +8095,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8295,7 +8301,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -8495,7 +8501,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -8695,7 +8701,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -8845,7 +8851,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -8995,7 +9001,7 @@
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -9359,7 +9365,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N152" s="2"/>
@@ -9449,7 +9455,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -9599,7 +9605,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -9749,7 +9755,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -10115,7 +10121,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -10265,7 +10271,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -10413,7 +10419,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N173" s="2"/>
